--- a/DataAnalytic/RoadAccident/acidentes_analise.xlsx
+++ b/DataAnalytic/RoadAccident/acidentes_analise.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Acidentes_Por_Pais"/>
@@ -603,7 +603,7 @@
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -831,13 +831,13 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="62.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">

--- a/DataAnalytic/RoadAccident/acidentes_analise.xlsx
+++ b/DataAnalytic/RoadAccident/acidentes_analise.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Acidentes_Por_Pais"/>
@@ -99,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,13 +109,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -176,10 +170,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -603,7 +597,7 @@
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1413,7 +1407,7 @@
   </sheetPr>
   <dimension ref="A1:E961"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1424,7 +1418,7 @@
     <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1458,7 +1452,7 @@
         <v>1166558.002788166</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1475,7 +1469,7 @@
         <v>1660142.29208658</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1492,7 +1486,7 @@
         <v>2308345.268945438</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1509,7 +1503,7 @@
         <v>3492127.938339778</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1526,7 +1520,7 @@
         <v>4110808.667631391</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1543,7 +1537,7 @@
         <v>4873301.886412414</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1560,7 +1554,7 @@
         <v>4531830.163908265</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1577,7 +1571,7 @@
         <v>3723977.203123433</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -1594,7 +1588,7 @@
         <v>4570870.803821702</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -1611,7 +1605,7 @@
         <v>4241995.623043418</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1628,7 +1622,7 @@
         <v>3975411.352595218</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -1645,7 +1639,7 @@
         <v>4350388.961190214</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -1662,7 +1656,7 @@
         <v>3897728.763990324</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
@@ -1679,7 +1673,7 @@
         <v>4553436.066195453</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1696,7 +1690,7 @@
         <v>4037871.119908567</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1713,7 +1707,7 @@
         <v>4636443.706833202</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
@@ -1730,7 +1724,7 @@
         <v>4310683.235181088</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
@@ -1747,7 +1741,7 @@
         <v>3405547.385772643</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
@@ -1764,7 +1758,7 @@
         <v>4173066.728914567</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -1781,7 +1775,7 @@
         <v>3983224.016688281</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
@@ -1798,7 +1792,7 @@
         <v>3610490.920472585</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
@@ -1815,7 +1809,7 @@
         <v>2483651.729547522</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
@@ -1832,7 +1826,7 @@
         <v>1627563.821643285</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
@@ -1849,7 +1843,7 @@
         <v>522271.5416153521</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
